--- a/Abmaßtabelle.xlsx
+++ b/Abmaßtabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hopfm.tmb18\Documents\GitHub\KE3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{84DEE681-F7FF-4D19-926E-5ED80A07B5C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F9867-10E9-4581-86CB-88421AF57E33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{C9DEF10F-BED7-4A01-B245-E18F84E5EA1E}"/>
   </bookViews>
@@ -25,12 +25,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Nennmaß-bereich in mm</t>
   </si>
   <si>
     <t>Abmaße* für Außenmaße</t>
+  </si>
+  <si>
+    <t>Abmaße* für Innenmaße</t>
+  </si>
+  <si>
+    <t>4,2 h11</t>
+  </si>
+  <si>
+    <t>92 h6</t>
+  </si>
+  <si>
+    <t>68 f7</t>
+  </si>
+  <si>
+    <t>36 f7</t>
+  </si>
+  <si>
+    <t>37,5 h12</t>
+  </si>
+  <si>
+    <t>45 h8</t>
+  </si>
+  <si>
+    <t>32 f7</t>
+  </si>
+  <si>
+    <t>40 k7</t>
+  </si>
+  <si>
+    <t>92 H7</t>
+  </si>
+  <si>
+    <t>68 H7</t>
+  </si>
+  <si>
+    <t>40 H8</t>
+  </si>
+  <si>
+    <t>36 H8</t>
+  </si>
+  <si>
+    <t>2,7 H11</t>
+  </si>
+  <si>
+    <t>1,85 H13</t>
+  </si>
+  <si>
+    <t>oberes Maß</t>
+  </si>
+  <si>
+    <t>unteres Maß</t>
+  </si>
+  <si>
+    <t>0,14mm</t>
   </si>
   <si>
     <r>
@@ -45,60 +99,16 @@
       </rPr>
       <t>µm nach DIN 286</t>
     </r>
-  </si>
-  <si>
-    <t>kleinste Maß</t>
-  </si>
-  <si>
-    <t>größtes Maß</t>
-  </si>
-  <si>
-    <t>kleinstes Maß</t>
-  </si>
-  <si>
-    <t>Abmaße* für Innenmaße</t>
-  </si>
-  <si>
-    <t>4,2 h11</t>
-  </si>
-  <si>
-    <t>92 h6</t>
-  </si>
-  <si>
-    <t>68 f7</t>
-  </si>
-  <si>
-    <t>36 f7</t>
-  </si>
-  <si>
-    <t>37,5 h12</t>
-  </si>
-  <si>
-    <t>45 h8</t>
-  </si>
-  <si>
-    <t>32 f7</t>
-  </si>
-  <si>
-    <t>40 k7</t>
-  </si>
-  <si>
-    <t>92 H7</t>
-  </si>
-  <si>
-    <t>68 H7</t>
-  </si>
-  <si>
-    <t>40 H8</t>
-  </si>
-  <si>
-    <t>36 H8</t>
-  </si>
-  <si>
-    <t>2,7 H11</t>
-  </si>
-  <si>
-    <t>1,85 H13</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -134,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -183,31 +193,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -526,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98F0565-4499-4152-8DFD-D1A7791AD025}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,131 +600,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>-75</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-25</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-50</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>60</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B5" s="2">
+        <v>-25</v>
+      </c>
+      <c r="C5" s="7">
+        <v>-50</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-0.25</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2">
+        <v>30</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>-39</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-30</v>
+      </c>
+      <c r="C9" s="7">
+        <v>-60</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-22</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
